--- a/horarios.xlsx
+++ b/horarios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Videojuegos\Github\GitHub pruebas\proyecto-videojuego-team-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyecto-videojuego-team-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463C6664-83A1-4584-8AF5-1DA28D18260D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>HORARIO</t>
   </si>
@@ -78,13 +79,22 @@
   </si>
   <si>
     <t>19:00-21:00</t>
+  </si>
+  <si>
+    <t>CLASE</t>
+  </si>
+  <si>
+    <t>TRABAJO</t>
+  </si>
+  <si>
+    <t>TRABAJO/2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +122,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,7 +216,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,11 +243,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Título 2" xfId="1" builtinId="17"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -245,7 +264,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -540,20 +559,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="30.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -588,14 +609,24 @@
         <v>13</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="E2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="I2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -605,13 +636,19 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="I3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -622,12 +659,20 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="G4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -640,10 +685,14 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -659,7 +708,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/horarios.xlsx
+++ b/horarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyecto-videojuego-team-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Almudena\Desktop\manicomio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463C6664-83A1-4584-8AF5-1DA28D18260D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E89E9446-962E-4D9B-A290-007EFA068DAA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>HORARIO</t>
   </si>
@@ -88,13 +88,61 @@
   </si>
   <si>
     <t>TRABAJO/2</t>
+  </si>
+  <si>
+    <r>
+      <t>CLASE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/CLASE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CLASE/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLASE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CLASE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ CLASE</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +178,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -216,7 +272,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -244,6 +300,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
@@ -563,7 +620,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,15 +667,17 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3"/>
       <c r="I2" s="10" t="s">
         <v>19</v>
       </c>
@@ -634,13 +693,21 @@
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I3" s="10" t="s">
         <v>19</v>
       </c>
@@ -660,10 +727,10 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>19</v>
@@ -680,7 +747,9 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>

--- a/horarios.xlsx
+++ b/horarios.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Almudena\Desktop\manicomio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alvaro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E89E9446-962E-4D9B-A290-007EFA068DAA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>HORARIO</t>
   </si>
@@ -88,38 +87,6 @@
   </si>
   <si>
     <t>TRABAJO/2</t>
-  </si>
-  <si>
-    <r>
-      <t>CLASE</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/CLASE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CLASE/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CLASE</t>
-    </r>
   </si>
   <si>
     <r>
@@ -137,12 +104,82 @@
       <t>/ CLASE</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>CLASE/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLASE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CLASE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/CLASE/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLASE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CLASE/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLASE/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CLASE</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +223,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -272,7 +317,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,6 +346,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
@@ -616,11 +662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,15 +711,17 @@
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="E2" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>18</v>
@@ -694,16 +742,16 @@
         <v>14</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>18</v>
@@ -727,10 +775,10 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>19</v>
@@ -752,7 +800,9 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="10" t="s">
         <v>20</v>
